--- a/grid-change/remove_transformers.xlsx
+++ b/grid-change/remove_transformers.xlsx
@@ -1260,7 +1260,7 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
